--- a/Table/Table_xls/j技能格系统/技能格信息表.xlsx
+++ b/Table/Table_xls/j技能格系统/技能格信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Administrator:
 穴位是否为绝技</t>
         </r>
       </text>
@@ -45,20 +37,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Administrator:
 穴位为绝技时填此列，对应绝技每个等级需求依赖穴位的等级要求</t>
         </r>
       </text>
@@ -67,20 +51,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Administrator:
 对应穴位修炼消耗表里规则</t>
         </r>
       </text>
@@ -90,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
   <si>
     <t>技能格ID</t>
   </si>
@@ -661,12 +637,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -705,21 +681,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,7 +689,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,15 +711,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +726,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,13 +747,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -817,9 +779,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,17 +815,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -897,24 +862,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -927,19 +874,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +910,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,49 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,17 +1071,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,28 +1091,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,6 +1123,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1184,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,19 +1158,19 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1214,115 +1179,115 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1437,15 +1402,10 @@
     <cellStyle name="常规 10" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 15" xfId="50"/>
-    <cellStyle name="常规 20" xfId="51"/>
+    <cellStyle name="常规 20" xfId="50"/>
+    <cellStyle name="常规 15" xfId="51"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1772,20 +1732,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AG137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2245,8 +2206,8 @@
       <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1">
-        <v>150</v>
+      <c r="D2" s="3">
+        <v>200</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>35</v>
@@ -2289,8 +2250,8 @@
       <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1">
-        <v>150</v>
+      <c r="D3" s="3">
+        <v>200</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>38</v>
@@ -2333,8 +2294,8 @@
       <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1">
-        <v>150</v>
+      <c r="D4" s="3">
+        <v>200</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>40</v>
@@ -2377,8 +2338,8 @@
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1">
-        <v>150</v>
+      <c r="D5" s="3">
+        <v>200</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>41</v>
@@ -2424,8 +2385,8 @@
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1">
-        <v>150</v>
+      <c r="D6" s="3">
+        <v>200</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
@@ -2474,8 +2435,8 @@
       <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1">
-        <v>150</v>
+      <c r="D7" s="3">
+        <v>200</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>43</v>
@@ -2521,8 +2482,8 @@
       <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1">
-        <v>150</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>44</v>
@@ -2609,8 +2570,8 @@
       <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2">
-        <v>150</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>48</v>
@@ -2653,8 +2614,8 @@
       <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2">
-        <v>150</v>
+      <c r="D11" s="3">
+        <v>200</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>49</v>
@@ -2697,8 +2658,8 @@
       <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2">
-        <v>150</v>
+      <c r="D12" s="3">
+        <v>200</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>51</v>
@@ -2741,8 +2702,8 @@
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2">
-        <v>150</v>
+      <c r="D13" s="3">
+        <v>200</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>52</v>
@@ -2788,8 +2749,8 @@
       <c r="C14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2">
-        <v>150</v>
+      <c r="D14" s="3">
+        <v>200</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>53</v>
@@ -2835,8 +2796,8 @@
       <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2">
-        <v>150</v>
+      <c r="D15" s="3">
+        <v>200</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>54</v>
@@ -2882,8 +2843,8 @@
       <c r="C16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2">
-        <v>150</v>
+      <c r="D16" s="3">
+        <v>200</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>55</v>
@@ -2970,8 +2931,8 @@
       <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1">
-        <v>150</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>58</v>
@@ -3017,8 +2978,8 @@
       <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="1">
-        <v>150</v>
+      <c r="D19" s="3">
+        <v>200</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>59</v>
@@ -3061,8 +3022,8 @@
       <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="1">
-        <v>150</v>
+      <c r="D20" s="3">
+        <v>200</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>61</v>
@@ -3105,8 +3066,8 @@
       <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="1">
-        <v>150</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>62</v>
@@ -3152,8 +3113,8 @@
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1">
-        <v>150</v>
+      <c r="D22" s="3">
+        <v>200</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>63</v>
@@ -3199,8 +3160,8 @@
       <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="1">
-        <v>150</v>
+      <c r="D23" s="3">
+        <v>200</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>64</v>
@@ -3246,8 +3207,8 @@
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="1">
-        <v>150</v>
+      <c r="D24" s="3">
+        <v>200</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>65</v>
@@ -3334,8 +3295,8 @@
       <c r="C26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2">
-        <v>150</v>
+      <c r="D26" s="3">
+        <v>200</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>68</v>
@@ -3378,8 +3339,8 @@
       <c r="C27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="2">
-        <v>150</v>
+      <c r="D27" s="3">
+        <v>200</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>69</v>
@@ -3422,8 +3383,8 @@
       <c r="C28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="2">
-        <v>150</v>
+      <c r="D28" s="3">
+        <v>200</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>71</v>
@@ -3466,8 +3427,8 @@
       <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="2">
-        <v>150</v>
+      <c r="D29" s="3">
+        <v>200</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>72</v>
@@ -3513,8 +3474,8 @@
       <c r="C30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="2">
-        <v>150</v>
+      <c r="D30" s="3">
+        <v>200</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>73</v>
@@ -3560,8 +3521,8 @@
       <c r="C31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="2">
-        <v>150</v>
+      <c r="D31" s="3">
+        <v>200</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>74</v>
@@ -3607,8 +3568,8 @@
       <c r="C32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="2">
-        <v>150</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>75</v>
@@ -3695,8 +3656,8 @@
       <c r="C34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1">
-        <v>150</v>
+      <c r="D34" s="3">
+        <v>200</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>78</v>
@@ -3739,8 +3700,8 @@
       <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1">
-        <v>150</v>
+      <c r="D35" s="3">
+        <v>200</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>79</v>
@@ -3783,8 +3744,8 @@
       <c r="C36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1">
-        <v>150</v>
+      <c r="D36" s="3">
+        <v>200</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>81</v>
@@ -3827,8 +3788,8 @@
       <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="1">
-        <v>150</v>
+      <c r="D37" s="3">
+        <v>200</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>82</v>
@@ -3874,8 +3835,8 @@
       <c r="C38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="1">
-        <v>150</v>
+      <c r="D38" s="3">
+        <v>200</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>83</v>
@@ -3921,8 +3882,8 @@
       <c r="C39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="1">
-        <v>150</v>
+      <c r="D39" s="3">
+        <v>200</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>84</v>
@@ -3968,8 +3929,8 @@
       <c r="C40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="1">
-        <v>150</v>
+      <c r="D40" s="3">
+        <v>200</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>85</v>
@@ -4056,8 +4017,8 @@
       <c r="C42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="2">
-        <v>150</v>
+      <c r="D42" s="3">
+        <v>200</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>88</v>
@@ -4100,8 +4061,8 @@
       <c r="C43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="2">
-        <v>150</v>
+      <c r="D43" s="3">
+        <v>200</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>89</v>
@@ -4144,8 +4105,8 @@
       <c r="C44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="2">
-        <v>150</v>
+      <c r="D44" s="3">
+        <v>200</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>91</v>
@@ -4188,8 +4149,8 @@
       <c r="C45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="2">
-        <v>150</v>
+      <c r="D45" s="3">
+        <v>200</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>92</v>
@@ -4235,8 +4196,8 @@
       <c r="C46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="2">
-        <v>150</v>
+      <c r="D46" s="3">
+        <v>200</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>93</v>
@@ -4282,8 +4243,8 @@
       <c r="C47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="2">
-        <v>150</v>
+      <c r="D47" s="3">
+        <v>200</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>94</v>
@@ -4329,8 +4290,8 @@
       <c r="C48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="2">
-        <v>150</v>
+      <c r="D48" s="3">
+        <v>200</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>95</v>
@@ -4417,8 +4378,8 @@
       <c r="C50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="1">
-        <v>150</v>
+      <c r="D50" s="3">
+        <v>200</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>98</v>
@@ -4461,8 +4422,8 @@
       <c r="C51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="1">
-        <v>150</v>
+      <c r="D51" s="3">
+        <v>200</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>99</v>
@@ -4505,8 +4466,8 @@
       <c r="C52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="1">
-        <v>150</v>
+      <c r="D52" s="3">
+        <v>200</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>101</v>
@@ -4549,8 +4510,8 @@
       <c r="C53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="1">
-        <v>150</v>
+      <c r="D53" s="3">
+        <v>200</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>102</v>
@@ -4596,8 +4557,8 @@
       <c r="C54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="1">
-        <v>150</v>
+      <c r="D54" s="3">
+        <v>200</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>103</v>
@@ -4643,8 +4604,8 @@
       <c r="C55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="1">
-        <v>150</v>
+      <c r="D55" s="3">
+        <v>200</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>104</v>
@@ -4690,8 +4651,8 @@
       <c r="C56" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="1">
-        <v>150</v>
+      <c r="D56" s="3">
+        <v>200</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>105</v>
@@ -4778,8 +4739,8 @@
       <c r="C58" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="2">
-        <v>150</v>
+      <c r="D58" s="3">
+        <v>200</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>108</v>
@@ -4822,8 +4783,8 @@
       <c r="C59" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="2">
-        <v>150</v>
+      <c r="D59" s="3">
+        <v>200</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>109</v>
@@ -4866,8 +4827,8 @@
       <c r="C60" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="2">
-        <v>150</v>
+      <c r="D60" s="3">
+        <v>200</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>111</v>
@@ -4910,8 +4871,8 @@
       <c r="C61" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="2">
-        <v>150</v>
+      <c r="D61" s="3">
+        <v>200</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>112</v>
@@ -4957,8 +4918,8 @@
       <c r="C62" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="2">
-        <v>150</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>113</v>
@@ -5004,8 +4965,8 @@
       <c r="C63" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="2">
-        <v>150</v>
+      <c r="D63" s="3">
+        <v>200</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>114</v>
@@ -5051,8 +5012,8 @@
       <c r="C64" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="2">
-        <v>150</v>
+      <c r="D64" s="3">
+        <v>200</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>115</v>
@@ -5139,8 +5100,8 @@
       <c r="C66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="1">
-        <v>150</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>118</v>
@@ -5183,8 +5144,8 @@
       <c r="C67" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="1">
-        <v>150</v>
+      <c r="D67" s="3">
+        <v>200</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>119</v>
@@ -5227,8 +5188,8 @@
       <c r="C68" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="1">
-        <v>150</v>
+      <c r="D68" s="3">
+        <v>200</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>121</v>
@@ -5271,8 +5232,8 @@
       <c r="C69" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="1">
-        <v>150</v>
+      <c r="D69" s="3">
+        <v>200</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>122</v>
@@ -5318,8 +5279,8 @@
       <c r="C70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="1">
-        <v>150</v>
+      <c r="D70" s="3">
+        <v>200</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>123</v>
@@ -5365,8 +5326,8 @@
       <c r="C71" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="1">
-        <v>150</v>
+      <c r="D71" s="3">
+        <v>200</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>124</v>
@@ -5412,8 +5373,8 @@
       <c r="C72" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="1">
-        <v>150</v>
+      <c r="D72" s="3">
+        <v>200</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>125</v>
@@ -6583,10 +6544,6 @@
       <c r="F98" s="14">
         <v>167000</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
       <c r="K98" s="2">
         <v>23</v>
       </c>
@@ -6596,7 +6553,6 @@
       <c r="M98" s="2">
         <v>0</v>
       </c>
-      <c r="N98" s="2"/>
       <c r="O98" s="2">
         <v>1</v>
       </c>
@@ -6632,10 +6588,6 @@
       <c r="F99" s="14">
         <v>167001</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
       <c r="K99" s="2">
         <v>23</v>
       </c>
@@ -6645,7 +6597,6 @@
       <c r="M99" s="2">
         <v>0</v>
       </c>
-      <c r="N99" s="2"/>
       <c r="O99" s="2">
         <v>1</v>
       </c>
@@ -6681,10 +6632,6 @@
       <c r="F100" s="14">
         <v>167002</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
       <c r="K100" s="2">
         <v>23</v>
       </c>
@@ -6694,7 +6641,6 @@
       <c r="M100" s="2">
         <v>0</v>
       </c>
-      <c r="N100" s="2"/>
       <c r="O100" s="2">
         <v>1</v>
       </c>
@@ -6733,9 +6679,6 @@
       <c r="G101" s="14">
         <v>167008</v>
       </c>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
       <c r="K101" s="2">
         <v>23</v>
       </c>
@@ -6745,7 +6688,6 @@
       <c r="M101" s="2">
         <v>10</v>
       </c>
-      <c r="N101" s="2"/>
       <c r="O101" s="2">
         <v>1</v>
       </c>
@@ -6784,9 +6726,6 @@
       <c r="G102" s="14">
         <v>167009</v>
       </c>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
       <c r="K102" s="2">
         <v>23</v>
       </c>
@@ -6796,7 +6735,6 @@
       <c r="M102" s="2">
         <v>20</v>
       </c>
-      <c r="N102" s="2"/>
       <c r="O102" s="2">
         <v>1</v>
       </c>
@@ -6835,9 +6773,6 @@
       <c r="G103" s="14">
         <v>167010</v>
       </c>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
       <c r="K103" s="2">
         <v>23</v>
       </c>
@@ -6847,7 +6782,6 @@
       <c r="M103" s="2">
         <v>30</v>
       </c>
-      <c r="N103" s="2"/>
       <c r="O103" s="2">
         <v>1</v>
       </c>
@@ -6883,10 +6817,6 @@
       <c r="F104" s="14">
         <v>167006</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
       <c r="K104" s="2">
         <v>23</v>
       </c>
@@ -6896,7 +6826,6 @@
       <c r="M104" s="2">
         <v>40</v>
       </c>
-      <c r="N104" s="2"/>
       <c r="O104" s="2">
         <v>2</v>
       </c>
@@ -6932,21 +6861,15 @@
       <c r="F105" s="14">
         <v>167007</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
       <c r="K105" s="2">
         <v>23</v>
       </c>
       <c r="L105" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="M105" s="2"/>
       <c r="N105" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O105" s="2"/>
       <c r="P105" s="2">
         <v>0</v>
       </c>
@@ -6979,10 +6902,6 @@
       <c r="F106" s="14">
         <v>168000</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
       <c r="K106" s="2">
         <v>24</v>
       </c>
@@ -6992,7 +6911,6 @@
       <c r="M106" s="2">
         <v>0</v>
       </c>
-      <c r="N106" s="2"/>
       <c r="O106" s="2">
         <v>1</v>
       </c>
@@ -7028,10 +6946,6 @@
       <c r="F107" s="14">
         <v>168001</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
       <c r="K107" s="2">
         <v>24</v>
       </c>
@@ -7041,7 +6955,6 @@
       <c r="M107" s="2">
         <v>0</v>
       </c>
-      <c r="N107" s="2"/>
       <c r="O107" s="2">
         <v>1</v>
       </c>
@@ -7077,10 +6990,6 @@
       <c r="F108" s="14">
         <v>168002</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
       <c r="K108" s="2">
         <v>24</v>
       </c>
@@ -7090,7 +6999,6 @@
       <c r="M108" s="2">
         <v>0</v>
       </c>
-      <c r="N108" s="2"/>
       <c r="O108" s="2">
         <v>1</v>
       </c>
@@ -7129,9 +7037,6 @@
       <c r="G109" s="14">
         <v>168008</v>
       </c>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
       <c r="K109" s="2">
         <v>24</v>
       </c>
@@ -7141,7 +7046,6 @@
       <c r="M109" s="2">
         <v>10</v>
       </c>
-      <c r="N109" s="2"/>
       <c r="O109" s="2">
         <v>1</v>
       </c>
@@ -7180,9 +7084,6 @@
       <c r="G110" s="14">
         <v>168009</v>
       </c>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
       <c r="K110" s="2">
         <v>24</v>
       </c>
@@ -7192,7 +7093,6 @@
       <c r="M110" s="2">
         <v>20</v>
       </c>
-      <c r="N110" s="2"/>
       <c r="O110" s="2">
         <v>1</v>
       </c>
@@ -7231,9 +7131,6 @@
       <c r="G111" s="14">
         <v>168010</v>
       </c>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
       <c r="K111" s="2">
         <v>24</v>
       </c>
@@ -7243,7 +7140,6 @@
       <c r="M111" s="2">
         <v>30</v>
       </c>
-      <c r="N111" s="2"/>
       <c r="O111" s="2">
         <v>1</v>
       </c>
@@ -7279,10 +7175,6 @@
       <c r="F112" s="14">
         <v>168006</v>
       </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
       <c r="K112" s="2">
         <v>24</v>
       </c>
@@ -7292,7 +7184,6 @@
       <c r="M112" s="2">
         <v>40</v>
       </c>
-      <c r="N112" s="2"/>
       <c r="O112" s="2">
         <v>2</v>
       </c>
@@ -7328,21 +7219,15 @@
       <c r="F113" s="14">
         <v>168007</v>
       </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
       <c r="K113" s="2">
         <v>24</v>
       </c>
       <c r="L113" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="M113" s="2"/>
       <c r="N113" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O113" s="2"/>
       <c r="P113" s="2">
         <v>0</v>
       </c>
@@ -7375,10 +7260,6 @@
       <c r="F114" s="14">
         <v>169000</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
       <c r="K114" s="2">
         <v>25</v>
       </c>
@@ -7388,7 +7269,6 @@
       <c r="M114" s="2">
         <v>0</v>
       </c>
-      <c r="N114" s="2"/>
       <c r="O114" s="2">
         <v>1</v>
       </c>
@@ -7424,10 +7304,6 @@
       <c r="F115" s="14">
         <v>169001</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
       <c r="K115" s="2">
         <v>25</v>
       </c>
@@ -7437,7 +7313,6 @@
       <c r="M115" s="2">
         <v>0</v>
       </c>
-      <c r="N115" s="2"/>
       <c r="O115" s="2">
         <v>1</v>
       </c>
@@ -7473,10 +7348,6 @@
       <c r="F116" s="14">
         <v>169002</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
       <c r="K116" s="2">
         <v>25</v>
       </c>
@@ -7486,7 +7357,6 @@
       <c r="M116" s="2">
         <v>0</v>
       </c>
-      <c r="N116" s="2"/>
       <c r="O116" s="2">
         <v>1</v>
       </c>
@@ -7525,9 +7395,6 @@
       <c r="G117" s="14">
         <v>169008</v>
       </c>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
       <c r="K117" s="2">
         <v>25</v>
       </c>
@@ -7537,7 +7404,6 @@
       <c r="M117" s="2">
         <v>10</v>
       </c>
-      <c r="N117" s="2"/>
       <c r="O117" s="2">
         <v>1</v>
       </c>
@@ -7576,9 +7442,6 @@
       <c r="G118" s="14">
         <v>169009</v>
       </c>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
       <c r="K118" s="2">
         <v>25</v>
       </c>
@@ -7588,7 +7451,6 @@
       <c r="M118" s="2">
         <v>20</v>
       </c>
-      <c r="N118" s="2"/>
       <c r="O118" s="2">
         <v>1</v>
       </c>
@@ -7627,9 +7489,6 @@
       <c r="G119" s="14">
         <v>169010</v>
       </c>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
       <c r="K119" s="2">
         <v>25</v>
       </c>
@@ -7639,7 +7498,6 @@
       <c r="M119" s="2">
         <v>30</v>
       </c>
-      <c r="N119" s="2"/>
       <c r="O119" s="2">
         <v>1</v>
       </c>
@@ -7675,10 +7533,6 @@
       <c r="F120" s="14">
         <v>169006</v>
       </c>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
       <c r="K120" s="2">
         <v>25</v>
       </c>
@@ -7688,7 +7542,6 @@
       <c r="M120" s="2">
         <v>40</v>
       </c>
-      <c r="N120" s="2"/>
       <c r="O120" s="2">
         <v>2</v>
       </c>
@@ -7724,21 +7577,15 @@
       <c r="F121" s="14">
         <v>169007</v>
       </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
       <c r="K121" s="2">
         <v>25</v>
       </c>
       <c r="L121" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="M121" s="2"/>
       <c r="N121" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O121" s="2"/>
       <c r="P121" s="2">
         <v>0</v>
       </c>
@@ -7772,9 +7619,6 @@
         <v>170000</v>
       </c>
       <c r="G122" s="2"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
       <c r="K122" s="1">
         <v>17</v>
       </c>
@@ -7784,7 +7628,6 @@
       <c r="M122" s="1">
         <v>30</v>
       </c>
-      <c r="N122" s="1"/>
       <c r="O122" s="1">
         <v>1</v>
       </c>
@@ -7821,9 +7664,6 @@
         <v>170001</v>
       </c>
       <c r="G123" s="2"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
       <c r="K123" s="1">
         <v>17</v>
       </c>
@@ -7833,7 +7673,6 @@
       <c r="M123" s="1">
         <v>30</v>
       </c>
-      <c r="N123" s="1"/>
       <c r="O123" s="1">
         <v>1</v>
       </c>
@@ -7870,9 +7709,6 @@
         <v>170002</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
       <c r="K124" s="1">
         <v>17</v>
       </c>
@@ -7882,7 +7718,6 @@
       <c r="M124" s="1">
         <v>30</v>
       </c>
-      <c r="N124" s="1"/>
       <c r="O124" s="1">
         <v>1</v>
       </c>
@@ -7919,9 +7754,6 @@
         <v>170003</v>
       </c>
       <c r="G125" s="2"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
       <c r="K125" s="1">
         <v>17</v>
       </c>
@@ -7931,7 +7763,6 @@
       <c r="M125" s="1">
         <v>30</v>
       </c>
-      <c r="N125" s="1"/>
       <c r="O125" s="1">
         <v>1</v>
       </c>
@@ -7968,9 +7799,6 @@
         <v>170004</v>
       </c>
       <c r="G126" s="2"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
       <c r="K126" s="1">
         <v>17</v>
       </c>
@@ -7980,7 +7808,6 @@
       <c r="M126" s="1">
         <v>30</v>
       </c>
-      <c r="N126" s="1"/>
       <c r="O126" s="1">
         <v>1</v>
       </c>
@@ -8017,9 +7844,6 @@
         <v>170005</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
       <c r="K127" s="1">
         <v>17</v>
       </c>
@@ -8029,7 +7853,6 @@
       <c r="M127" s="1">
         <v>30</v>
       </c>
-      <c r="N127" s="1"/>
       <c r="O127" s="1">
         <v>1</v>
       </c>
@@ -8066,9 +7889,6 @@
         <v>170006</v>
       </c>
       <c r="G128" s="2"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
       <c r="K128" s="1">
         <v>17</v>
       </c>
@@ -8078,7 +7898,6 @@
       <c r="M128" s="1">
         <v>30</v>
       </c>
-      <c r="N128" s="1"/>
       <c r="O128" s="1">
         <v>1</v>
       </c>
@@ -8115,9 +7934,6 @@
         <v>170007</v>
       </c>
       <c r="G129" s="2"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
       <c r="K129" s="1">
         <v>17</v>
       </c>
@@ -8127,7 +7943,6 @@
       <c r="M129" s="1">
         <v>30</v>
       </c>
-      <c r="N129" s="1"/>
       <c r="O129" s="1">
         <v>1</v>
       </c>
@@ -8164,9 +7979,6 @@
         <v>170008</v>
       </c>
       <c r="G130" s="2"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
       <c r="K130" s="1">
         <v>17</v>
       </c>
@@ -8176,7 +7988,6 @@
       <c r="M130" s="1">
         <v>30</v>
       </c>
-      <c r="N130" s="1"/>
       <c r="O130" s="1">
         <v>1</v>
       </c>
@@ -8213,9 +8024,6 @@
         <v>170009</v>
       </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
       <c r="K131" s="1">
         <v>17</v>
       </c>
@@ -8225,7 +8033,6 @@
       <c r="M131" s="1">
         <v>30</v>
       </c>
-      <c r="N131" s="1"/>
       <c r="O131" s="1">
         <v>1</v>
       </c>
@@ -8262,9 +8069,6 @@
         <v>170010</v>
       </c>
       <c r="G132" s="2"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
       <c r="K132" s="1">
         <v>17</v>
       </c>
@@ -8274,7 +8078,6 @@
       <c r="M132" s="1">
         <v>30</v>
       </c>
-      <c r="N132" s="1"/>
       <c r="O132" s="1">
         <v>1</v>
       </c>
@@ -8311,9 +8114,6 @@
         <v>170011</v>
       </c>
       <c r="G133" s="2"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
       <c r="K133" s="1">
         <v>17</v>
       </c>
@@ -8323,7 +8123,6 @@
       <c r="M133" s="1">
         <v>30</v>
       </c>
-      <c r="N133" s="1"/>
       <c r="O133" s="1">
         <v>1</v>
       </c>
@@ -8360,9 +8159,6 @@
         <v>170012</v>
       </c>
       <c r="G134" s="2"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
       <c r="K134" s="1">
         <v>17</v>
       </c>
@@ -8372,7 +8168,6 @@
       <c r="M134" s="1">
         <v>30</v>
       </c>
-      <c r="N134" s="1"/>
       <c r="O134" s="1">
         <v>1</v>
       </c>
@@ -8409,9 +8204,6 @@
         <v>170013</v>
       </c>
       <c r="G135" s="2"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
       <c r="K135" s="1">
         <v>17</v>
       </c>
@@ -8421,7 +8213,6 @@
       <c r="M135" s="1">
         <v>30</v>
       </c>
-      <c r="N135" s="1"/>
       <c r="O135" s="1">
         <v>1</v>
       </c>
@@ -8458,9 +8249,6 @@
         <v>170014</v>
       </c>
       <c r="G136" s="2"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
       <c r="K136" s="1">
         <v>17</v>
       </c>
@@ -8470,7 +8258,6 @@
       <c r="M136" s="1">
         <v>30</v>
       </c>
-      <c r="N136" s="1"/>
       <c r="O136" s="1">
         <v>1</v>
       </c>

--- a/Table/Table_xls/j技能格系统/技能格信息表.xlsx
+++ b/Table/Table_xls/j技能格系统/技能格信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,20 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 穴位是否为绝技</t>
         </r>
       </text>
@@ -37,12 +45,20 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 穴位为绝技时填此列，对应绝技每个等级需求依赖穴位的等级要求</t>
         </r>
       </text>
@@ -51,12 +67,20 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 对应穴位修炼消耗表里规则</t>
         </r>
       </text>
@@ -66,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="188">
   <si>
     <t>技能格ID</t>
   </si>
@@ -637,12 +661,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -681,6 +705,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -689,7 +720,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,31 +774,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,27 +787,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,10 +810,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,26 +827,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -862,13 +897,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,25 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,55 +963,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,37 +1011,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,13 +1106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,6 +1126,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,32 +1157,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,7 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,136 +1193,136 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1402,10 +1437,15 @@
     <cellStyle name="常规 10" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 20" xfId="50"/>
-    <cellStyle name="常规 15" xfId="51"/>
+    <cellStyle name="常规 15" xfId="50"/>
+    <cellStyle name="常规 20" xfId="51"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1732,367 +1772,366 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG137"/>
+  <dimension ref="A1:AG136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D66" sqref="D66:D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="4"/>
+    <col min="1" max="2" width="9.13888888888889" style="4"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.1428571428571" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.4259259259259" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1388888888889" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="9.14285714285714" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.8571428571429" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.2857142857143" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.4285714285714" style="4" customWidth="1"/>
-    <col min="14" max="15" width="22.5714285714286" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.8571428571429" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.13888888888889" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.8611111111111" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.287037037037" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.4259259259259" style="4" customWidth="1"/>
+    <col min="14" max="15" width="22.5740740740741" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.8611111111111" style="4" customWidth="1"/>
     <col min="17" max="17" width="23" style="4" customWidth="1"/>
-    <col min="18" max="18" width="22.7142857142857" style="4" customWidth="1"/>
-    <col min="19" max="19" width="20.1428571428571" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.14285714285714" style="4"/>
+    <col min="18" max="18" width="22.712962962963" style="4" customWidth="1"/>
+    <col min="19" max="19" width="20.1388888888889" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.13888888888889" style="4"/>
     <col min="21" max="21" width="13" style="4" customWidth="1"/>
-    <col min="22" max="25" width="9.14285714285714" style="4"/>
+    <col min="22" max="25" width="9.13888888888889" style="4"/>
     <col min="26" max="29" width="9" style="4"/>
-    <col min="30" max="30" width="18.2857142857143" style="4" customWidth="1"/>
-    <col min="31" max="31" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="32" max="32" width="13.4285714285714" style="4" customWidth="1"/>
-    <col min="33" max="33" width="14.1428571428571" style="4" customWidth="1"/>
-    <col min="34" max="270" width="9.14285714285714" style="4"/>
-    <col min="271" max="271" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="272" max="278" width="9.14285714285714" style="4"/>
-    <col min="279" max="279" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="280" max="280" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="281" max="526" width="9.14285714285714" style="4"/>
-    <col min="527" max="527" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="528" max="534" width="9.14285714285714" style="4"/>
-    <col min="535" max="535" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="536" max="536" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="537" max="782" width="9.14285714285714" style="4"/>
-    <col min="783" max="783" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="784" max="790" width="9.14285714285714" style="4"/>
-    <col min="791" max="791" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="792" max="792" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="793" max="1038" width="9.14285714285714" style="4"/>
-    <col min="1039" max="1039" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1040" max="1046" width="9.14285714285714" style="4"/>
-    <col min="1047" max="1047" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1048" max="1048" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="1049" max="1294" width="9.14285714285714" style="4"/>
-    <col min="1295" max="1295" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1296" max="1302" width="9.14285714285714" style="4"/>
-    <col min="1303" max="1303" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1304" max="1304" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="1305" max="1550" width="9.14285714285714" style="4"/>
-    <col min="1551" max="1551" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1552" max="1558" width="9.14285714285714" style="4"/>
-    <col min="1559" max="1559" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1560" max="1560" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="1561" max="1806" width="9.14285714285714" style="4"/>
-    <col min="1807" max="1807" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1808" max="1814" width="9.14285714285714" style="4"/>
-    <col min="1815" max="1815" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="1816" max="1816" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="1817" max="2062" width="9.14285714285714" style="4"/>
-    <col min="2063" max="2063" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2064" max="2070" width="9.14285714285714" style="4"/>
-    <col min="2071" max="2071" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2072" max="2072" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="2073" max="2318" width="9.14285714285714" style="4"/>
-    <col min="2319" max="2319" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2320" max="2326" width="9.14285714285714" style="4"/>
-    <col min="2327" max="2327" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2328" max="2328" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="2329" max="2574" width="9.14285714285714" style="4"/>
-    <col min="2575" max="2575" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2576" max="2582" width="9.14285714285714" style="4"/>
-    <col min="2583" max="2583" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2584" max="2584" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="2585" max="2830" width="9.14285714285714" style="4"/>
-    <col min="2831" max="2831" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2832" max="2838" width="9.14285714285714" style="4"/>
-    <col min="2839" max="2839" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="2840" max="2840" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="2841" max="3086" width="9.14285714285714" style="4"/>
-    <col min="3087" max="3087" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3088" max="3094" width="9.14285714285714" style="4"/>
-    <col min="3095" max="3095" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3096" max="3096" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="3097" max="3342" width="9.14285714285714" style="4"/>
-    <col min="3343" max="3343" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3344" max="3350" width="9.14285714285714" style="4"/>
-    <col min="3351" max="3351" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3352" max="3352" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="3353" max="3598" width="9.14285714285714" style="4"/>
-    <col min="3599" max="3599" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3600" max="3606" width="9.14285714285714" style="4"/>
-    <col min="3607" max="3607" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3608" max="3608" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="3609" max="3854" width="9.14285714285714" style="4"/>
-    <col min="3855" max="3855" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3856" max="3862" width="9.14285714285714" style="4"/>
-    <col min="3863" max="3863" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="3864" max="3864" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="3865" max="4110" width="9.14285714285714" style="4"/>
-    <col min="4111" max="4111" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4112" max="4118" width="9.14285714285714" style="4"/>
-    <col min="4119" max="4119" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4120" max="4120" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="4121" max="4366" width="9.14285714285714" style="4"/>
-    <col min="4367" max="4367" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4368" max="4374" width="9.14285714285714" style="4"/>
-    <col min="4375" max="4375" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4376" max="4376" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="4377" max="4622" width="9.14285714285714" style="4"/>
-    <col min="4623" max="4623" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4624" max="4630" width="9.14285714285714" style="4"/>
-    <col min="4631" max="4631" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4632" max="4632" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="4633" max="4878" width="9.14285714285714" style="4"/>
-    <col min="4879" max="4879" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4880" max="4886" width="9.14285714285714" style="4"/>
-    <col min="4887" max="4887" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="4888" max="4888" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="4889" max="5134" width="9.14285714285714" style="4"/>
-    <col min="5135" max="5135" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5136" max="5142" width="9.14285714285714" style="4"/>
-    <col min="5143" max="5143" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5144" max="5144" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="5145" max="5390" width="9.14285714285714" style="4"/>
-    <col min="5391" max="5391" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5392" max="5398" width="9.14285714285714" style="4"/>
-    <col min="5399" max="5399" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5400" max="5400" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="5401" max="5646" width="9.14285714285714" style="4"/>
-    <col min="5647" max="5647" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5648" max="5654" width="9.14285714285714" style="4"/>
-    <col min="5655" max="5655" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5656" max="5656" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="5657" max="5902" width="9.14285714285714" style="4"/>
-    <col min="5903" max="5903" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5904" max="5910" width="9.14285714285714" style="4"/>
-    <col min="5911" max="5911" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="5912" max="5912" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="5913" max="6158" width="9.14285714285714" style="4"/>
-    <col min="6159" max="6159" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6160" max="6166" width="9.14285714285714" style="4"/>
-    <col min="6167" max="6167" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6168" max="6168" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="6169" max="6414" width="9.14285714285714" style="4"/>
-    <col min="6415" max="6415" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6416" max="6422" width="9.14285714285714" style="4"/>
-    <col min="6423" max="6423" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6424" max="6424" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="6425" max="6670" width="9.14285714285714" style="4"/>
-    <col min="6671" max="6671" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6672" max="6678" width="9.14285714285714" style="4"/>
-    <col min="6679" max="6679" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6680" max="6680" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="6681" max="6926" width="9.14285714285714" style="4"/>
-    <col min="6927" max="6927" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6928" max="6934" width="9.14285714285714" style="4"/>
-    <col min="6935" max="6935" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="6936" max="6936" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="6937" max="7182" width="9.14285714285714" style="4"/>
-    <col min="7183" max="7183" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7184" max="7190" width="9.14285714285714" style="4"/>
-    <col min="7191" max="7191" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7192" max="7192" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="7193" max="7438" width="9.14285714285714" style="4"/>
-    <col min="7439" max="7439" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7440" max="7446" width="9.14285714285714" style="4"/>
-    <col min="7447" max="7447" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7448" max="7448" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="7449" max="7694" width="9.14285714285714" style="4"/>
-    <col min="7695" max="7695" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7696" max="7702" width="9.14285714285714" style="4"/>
-    <col min="7703" max="7703" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7704" max="7704" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="7705" max="7950" width="9.14285714285714" style="4"/>
-    <col min="7951" max="7951" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7952" max="7958" width="9.14285714285714" style="4"/>
-    <col min="7959" max="7959" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="7960" max="7960" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="7961" max="8206" width="9.14285714285714" style="4"/>
-    <col min="8207" max="8207" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8208" max="8214" width="9.14285714285714" style="4"/>
-    <col min="8215" max="8215" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8216" max="8216" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="8217" max="8462" width="9.14285714285714" style="4"/>
-    <col min="8463" max="8463" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8464" max="8470" width="9.14285714285714" style="4"/>
-    <col min="8471" max="8471" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8472" max="8472" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="8473" max="8718" width="9.14285714285714" style="4"/>
-    <col min="8719" max="8719" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8720" max="8726" width="9.14285714285714" style="4"/>
-    <col min="8727" max="8727" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8728" max="8728" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="8729" max="8974" width="9.14285714285714" style="4"/>
-    <col min="8975" max="8975" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8976" max="8982" width="9.14285714285714" style="4"/>
-    <col min="8983" max="8983" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="8984" max="8984" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="8985" max="9230" width="9.14285714285714" style="4"/>
-    <col min="9231" max="9231" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="9232" max="9238" width="9.14285714285714" style="4"/>
-    <col min="9239" max="9239" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="9240" max="9240" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="9241" max="9486" width="9.14285714285714" style="4"/>
-    <col min="9487" max="9487" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="9488" max="9494" width="9.14285714285714" style="4"/>
-    <col min="9495" max="9495" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="9496" max="9496" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="9497" max="9742" width="9.14285714285714" style="4"/>
-    <col min="9743" max="9743" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="9744" max="9750" width="9.14285714285714" style="4"/>
-    <col min="9751" max="9751" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="9752" max="9752" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="9753" max="9998" width="9.14285714285714" style="4"/>
-    <col min="9999" max="9999" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10000" max="10006" width="9.14285714285714" style="4"/>
-    <col min="10007" max="10007" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10008" max="10008" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="10009" max="10254" width="9.14285714285714" style="4"/>
-    <col min="10255" max="10255" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10256" max="10262" width="9.14285714285714" style="4"/>
-    <col min="10263" max="10263" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10264" max="10264" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="10265" max="10510" width="9.14285714285714" style="4"/>
-    <col min="10511" max="10511" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10512" max="10518" width="9.14285714285714" style="4"/>
-    <col min="10519" max="10519" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10520" max="10520" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="10521" max="10766" width="9.14285714285714" style="4"/>
-    <col min="10767" max="10767" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10768" max="10774" width="9.14285714285714" style="4"/>
-    <col min="10775" max="10775" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="10776" max="10776" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="10777" max="11022" width="9.14285714285714" style="4"/>
-    <col min="11023" max="11023" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11024" max="11030" width="9.14285714285714" style="4"/>
-    <col min="11031" max="11031" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11032" max="11032" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="11033" max="11278" width="9.14285714285714" style="4"/>
-    <col min="11279" max="11279" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11280" max="11286" width="9.14285714285714" style="4"/>
-    <col min="11287" max="11287" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11288" max="11288" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="11289" max="11534" width="9.14285714285714" style="4"/>
-    <col min="11535" max="11535" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11536" max="11542" width="9.14285714285714" style="4"/>
-    <col min="11543" max="11543" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11544" max="11544" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="11545" max="11790" width="9.14285714285714" style="4"/>
-    <col min="11791" max="11791" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11792" max="11798" width="9.14285714285714" style="4"/>
-    <col min="11799" max="11799" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="11800" max="11800" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="11801" max="12046" width="9.14285714285714" style="4"/>
-    <col min="12047" max="12047" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12048" max="12054" width="9.14285714285714" style="4"/>
-    <col min="12055" max="12055" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12056" max="12056" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="12057" max="12302" width="9.14285714285714" style="4"/>
-    <col min="12303" max="12303" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12304" max="12310" width="9.14285714285714" style="4"/>
-    <col min="12311" max="12311" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12312" max="12312" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="12313" max="12558" width="9.14285714285714" style="4"/>
-    <col min="12559" max="12559" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12560" max="12566" width="9.14285714285714" style="4"/>
-    <col min="12567" max="12567" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12568" max="12568" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="12569" max="12814" width="9.14285714285714" style="4"/>
-    <col min="12815" max="12815" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12816" max="12822" width="9.14285714285714" style="4"/>
-    <col min="12823" max="12823" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="12824" max="12824" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="12825" max="13070" width="9.14285714285714" style="4"/>
-    <col min="13071" max="13071" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13072" max="13078" width="9.14285714285714" style="4"/>
-    <col min="13079" max="13079" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13080" max="13080" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="13081" max="13326" width="9.14285714285714" style="4"/>
-    <col min="13327" max="13327" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13328" max="13334" width="9.14285714285714" style="4"/>
-    <col min="13335" max="13335" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13336" max="13336" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="13337" max="13582" width="9.14285714285714" style="4"/>
-    <col min="13583" max="13583" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13584" max="13590" width="9.14285714285714" style="4"/>
-    <col min="13591" max="13591" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13592" max="13592" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="13593" max="13838" width="9.14285714285714" style="4"/>
-    <col min="13839" max="13839" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13840" max="13846" width="9.14285714285714" style="4"/>
-    <col min="13847" max="13847" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="13848" max="13848" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="13849" max="14094" width="9.14285714285714" style="4"/>
-    <col min="14095" max="14095" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14096" max="14102" width="9.14285714285714" style="4"/>
-    <col min="14103" max="14103" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14104" max="14104" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="14105" max="14350" width="9.14285714285714" style="4"/>
-    <col min="14351" max="14351" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14352" max="14358" width="9.14285714285714" style="4"/>
-    <col min="14359" max="14359" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14360" max="14360" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="14361" max="14606" width="9.14285714285714" style="4"/>
-    <col min="14607" max="14607" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14608" max="14614" width="9.14285714285714" style="4"/>
-    <col min="14615" max="14615" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14616" max="14616" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="14617" max="14862" width="9.14285714285714" style="4"/>
-    <col min="14863" max="14863" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14864" max="14870" width="9.14285714285714" style="4"/>
-    <col min="14871" max="14871" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="14872" max="14872" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="14873" max="15118" width="9.14285714285714" style="4"/>
-    <col min="15119" max="15119" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15120" max="15126" width="9.14285714285714" style="4"/>
-    <col min="15127" max="15127" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15128" max="15128" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="15129" max="15374" width="9.14285714285714" style="4"/>
-    <col min="15375" max="15375" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15376" max="15382" width="9.14285714285714" style="4"/>
-    <col min="15383" max="15383" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15384" max="15384" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="15385" max="15630" width="9.14285714285714" style="4"/>
-    <col min="15631" max="15631" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15632" max="15638" width="9.14285714285714" style="4"/>
-    <col min="15639" max="15639" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15640" max="15640" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="15641" max="15886" width="9.14285714285714" style="4"/>
-    <col min="15887" max="15887" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15888" max="15894" width="9.14285714285714" style="4"/>
-    <col min="15895" max="15895" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="15896" max="15896" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="15897" max="16142" width="9.14285714285714" style="4"/>
-    <col min="16143" max="16143" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="16144" max="16150" width="9.14285714285714" style="4"/>
-    <col min="16151" max="16151" width="16.8571428571429" style="4" customWidth="1"/>
-    <col min="16152" max="16152" width="17.5714285714286" style="4" customWidth="1"/>
-    <col min="16153" max="16378" width="9.14285714285714" style="4"/>
-    <col min="16379" max="16384" width="9.14285714285714" style="4" customWidth="1"/>
+    <col min="30" max="30" width="18.287037037037" style="4" customWidth="1"/>
+    <col min="31" max="31" width="15.712962962963" style="4" customWidth="1"/>
+    <col min="32" max="32" width="13.4259259259259" style="4" customWidth="1"/>
+    <col min="33" max="33" width="14.1388888888889" style="4" customWidth="1"/>
+    <col min="34" max="270" width="9.13888888888889" style="4"/>
+    <col min="271" max="271" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="272" max="278" width="9.13888888888889" style="4"/>
+    <col min="279" max="279" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="280" max="280" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="281" max="526" width="9.13888888888889" style="4"/>
+    <col min="527" max="527" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="528" max="534" width="9.13888888888889" style="4"/>
+    <col min="535" max="535" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="536" max="536" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="537" max="782" width="9.13888888888889" style="4"/>
+    <col min="783" max="783" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="784" max="790" width="9.13888888888889" style="4"/>
+    <col min="791" max="791" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="792" max="792" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="793" max="1038" width="9.13888888888889" style="4"/>
+    <col min="1039" max="1039" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1040" max="1046" width="9.13888888888889" style="4"/>
+    <col min="1047" max="1047" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1048" max="1048" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="1049" max="1294" width="9.13888888888889" style="4"/>
+    <col min="1295" max="1295" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1296" max="1302" width="9.13888888888889" style="4"/>
+    <col min="1303" max="1303" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1304" max="1304" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="1305" max="1550" width="9.13888888888889" style="4"/>
+    <col min="1551" max="1551" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1552" max="1558" width="9.13888888888889" style="4"/>
+    <col min="1559" max="1559" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1560" max="1560" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="1561" max="1806" width="9.13888888888889" style="4"/>
+    <col min="1807" max="1807" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1808" max="1814" width="9.13888888888889" style="4"/>
+    <col min="1815" max="1815" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="1816" max="1816" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="1817" max="2062" width="9.13888888888889" style="4"/>
+    <col min="2063" max="2063" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2064" max="2070" width="9.13888888888889" style="4"/>
+    <col min="2071" max="2071" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2072" max="2072" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="2073" max="2318" width="9.13888888888889" style="4"/>
+    <col min="2319" max="2319" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2320" max="2326" width="9.13888888888889" style="4"/>
+    <col min="2327" max="2327" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2328" max="2328" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="2329" max="2574" width="9.13888888888889" style="4"/>
+    <col min="2575" max="2575" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2576" max="2582" width="9.13888888888889" style="4"/>
+    <col min="2583" max="2583" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2584" max="2584" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="2585" max="2830" width="9.13888888888889" style="4"/>
+    <col min="2831" max="2831" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2832" max="2838" width="9.13888888888889" style="4"/>
+    <col min="2839" max="2839" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="2840" max="2840" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="2841" max="3086" width="9.13888888888889" style="4"/>
+    <col min="3087" max="3087" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3088" max="3094" width="9.13888888888889" style="4"/>
+    <col min="3095" max="3095" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3096" max="3096" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="3097" max="3342" width="9.13888888888889" style="4"/>
+    <col min="3343" max="3343" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3344" max="3350" width="9.13888888888889" style="4"/>
+    <col min="3351" max="3351" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3352" max="3352" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="3353" max="3598" width="9.13888888888889" style="4"/>
+    <col min="3599" max="3599" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3600" max="3606" width="9.13888888888889" style="4"/>
+    <col min="3607" max="3607" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3608" max="3608" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="3609" max="3854" width="9.13888888888889" style="4"/>
+    <col min="3855" max="3855" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3856" max="3862" width="9.13888888888889" style="4"/>
+    <col min="3863" max="3863" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="3864" max="3864" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="3865" max="4110" width="9.13888888888889" style="4"/>
+    <col min="4111" max="4111" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4112" max="4118" width="9.13888888888889" style="4"/>
+    <col min="4119" max="4119" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4120" max="4120" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="4121" max="4366" width="9.13888888888889" style="4"/>
+    <col min="4367" max="4367" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4368" max="4374" width="9.13888888888889" style="4"/>
+    <col min="4375" max="4375" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4376" max="4376" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="4377" max="4622" width="9.13888888888889" style="4"/>
+    <col min="4623" max="4623" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4624" max="4630" width="9.13888888888889" style="4"/>
+    <col min="4631" max="4631" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4632" max="4632" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="4633" max="4878" width="9.13888888888889" style="4"/>
+    <col min="4879" max="4879" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4880" max="4886" width="9.13888888888889" style="4"/>
+    <col min="4887" max="4887" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="4888" max="4888" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="4889" max="5134" width="9.13888888888889" style="4"/>
+    <col min="5135" max="5135" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5136" max="5142" width="9.13888888888889" style="4"/>
+    <col min="5143" max="5143" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5144" max="5144" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="5145" max="5390" width="9.13888888888889" style="4"/>
+    <col min="5391" max="5391" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5392" max="5398" width="9.13888888888889" style="4"/>
+    <col min="5399" max="5399" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5400" max="5400" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="5401" max="5646" width="9.13888888888889" style="4"/>
+    <col min="5647" max="5647" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5648" max="5654" width="9.13888888888889" style="4"/>
+    <col min="5655" max="5655" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5656" max="5656" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="5657" max="5902" width="9.13888888888889" style="4"/>
+    <col min="5903" max="5903" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5904" max="5910" width="9.13888888888889" style="4"/>
+    <col min="5911" max="5911" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="5912" max="5912" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="5913" max="6158" width="9.13888888888889" style="4"/>
+    <col min="6159" max="6159" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6160" max="6166" width="9.13888888888889" style="4"/>
+    <col min="6167" max="6167" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6168" max="6168" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="6169" max="6414" width="9.13888888888889" style="4"/>
+    <col min="6415" max="6415" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6416" max="6422" width="9.13888888888889" style="4"/>
+    <col min="6423" max="6423" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6424" max="6424" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="6425" max="6670" width="9.13888888888889" style="4"/>
+    <col min="6671" max="6671" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6672" max="6678" width="9.13888888888889" style="4"/>
+    <col min="6679" max="6679" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6680" max="6680" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="6681" max="6926" width="9.13888888888889" style="4"/>
+    <col min="6927" max="6927" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6928" max="6934" width="9.13888888888889" style="4"/>
+    <col min="6935" max="6935" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="6936" max="6936" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="6937" max="7182" width="9.13888888888889" style="4"/>
+    <col min="7183" max="7183" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7184" max="7190" width="9.13888888888889" style="4"/>
+    <col min="7191" max="7191" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7192" max="7192" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="7193" max="7438" width="9.13888888888889" style="4"/>
+    <col min="7439" max="7439" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7440" max="7446" width="9.13888888888889" style="4"/>
+    <col min="7447" max="7447" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7448" max="7448" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="7449" max="7694" width="9.13888888888889" style="4"/>
+    <col min="7695" max="7695" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7696" max="7702" width="9.13888888888889" style="4"/>
+    <col min="7703" max="7703" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7704" max="7704" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="7705" max="7950" width="9.13888888888889" style="4"/>
+    <col min="7951" max="7951" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7952" max="7958" width="9.13888888888889" style="4"/>
+    <col min="7959" max="7959" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="7960" max="7960" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="7961" max="8206" width="9.13888888888889" style="4"/>
+    <col min="8207" max="8207" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8208" max="8214" width="9.13888888888889" style="4"/>
+    <col min="8215" max="8215" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8216" max="8216" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="8217" max="8462" width="9.13888888888889" style="4"/>
+    <col min="8463" max="8463" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8464" max="8470" width="9.13888888888889" style="4"/>
+    <col min="8471" max="8471" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8472" max="8472" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="8473" max="8718" width="9.13888888888889" style="4"/>
+    <col min="8719" max="8719" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8720" max="8726" width="9.13888888888889" style="4"/>
+    <col min="8727" max="8727" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8728" max="8728" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="8729" max="8974" width="9.13888888888889" style="4"/>
+    <col min="8975" max="8975" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8976" max="8982" width="9.13888888888889" style="4"/>
+    <col min="8983" max="8983" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="8984" max="8984" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="8985" max="9230" width="9.13888888888889" style="4"/>
+    <col min="9231" max="9231" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="9232" max="9238" width="9.13888888888889" style="4"/>
+    <col min="9239" max="9239" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="9240" max="9240" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="9241" max="9486" width="9.13888888888889" style="4"/>
+    <col min="9487" max="9487" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="9488" max="9494" width="9.13888888888889" style="4"/>
+    <col min="9495" max="9495" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="9496" max="9496" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="9497" max="9742" width="9.13888888888889" style="4"/>
+    <col min="9743" max="9743" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="9744" max="9750" width="9.13888888888889" style="4"/>
+    <col min="9751" max="9751" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="9752" max="9752" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="9753" max="9998" width="9.13888888888889" style="4"/>
+    <col min="9999" max="9999" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10000" max="10006" width="9.13888888888889" style="4"/>
+    <col min="10007" max="10007" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10008" max="10008" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="10009" max="10254" width="9.13888888888889" style="4"/>
+    <col min="10255" max="10255" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10256" max="10262" width="9.13888888888889" style="4"/>
+    <col min="10263" max="10263" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10264" max="10264" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="10265" max="10510" width="9.13888888888889" style="4"/>
+    <col min="10511" max="10511" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10512" max="10518" width="9.13888888888889" style="4"/>
+    <col min="10519" max="10519" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10520" max="10520" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="10521" max="10766" width="9.13888888888889" style="4"/>
+    <col min="10767" max="10767" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10768" max="10774" width="9.13888888888889" style="4"/>
+    <col min="10775" max="10775" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="10776" max="10776" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="10777" max="11022" width="9.13888888888889" style="4"/>
+    <col min="11023" max="11023" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11024" max="11030" width="9.13888888888889" style="4"/>
+    <col min="11031" max="11031" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11032" max="11032" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="11033" max="11278" width="9.13888888888889" style="4"/>
+    <col min="11279" max="11279" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11280" max="11286" width="9.13888888888889" style="4"/>
+    <col min="11287" max="11287" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11288" max="11288" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="11289" max="11534" width="9.13888888888889" style="4"/>
+    <col min="11535" max="11535" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11536" max="11542" width="9.13888888888889" style="4"/>
+    <col min="11543" max="11543" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11544" max="11544" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="11545" max="11790" width="9.13888888888889" style="4"/>
+    <col min="11791" max="11791" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11792" max="11798" width="9.13888888888889" style="4"/>
+    <col min="11799" max="11799" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="11800" max="11800" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="11801" max="12046" width="9.13888888888889" style="4"/>
+    <col min="12047" max="12047" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12048" max="12054" width="9.13888888888889" style="4"/>
+    <col min="12055" max="12055" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12056" max="12056" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="12057" max="12302" width="9.13888888888889" style="4"/>
+    <col min="12303" max="12303" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12304" max="12310" width="9.13888888888889" style="4"/>
+    <col min="12311" max="12311" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12312" max="12312" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="12313" max="12558" width="9.13888888888889" style="4"/>
+    <col min="12559" max="12559" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12560" max="12566" width="9.13888888888889" style="4"/>
+    <col min="12567" max="12567" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12568" max="12568" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="12569" max="12814" width="9.13888888888889" style="4"/>
+    <col min="12815" max="12815" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12816" max="12822" width="9.13888888888889" style="4"/>
+    <col min="12823" max="12823" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="12824" max="12824" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="12825" max="13070" width="9.13888888888889" style="4"/>
+    <col min="13071" max="13071" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13072" max="13078" width="9.13888888888889" style="4"/>
+    <col min="13079" max="13079" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13080" max="13080" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="13081" max="13326" width="9.13888888888889" style="4"/>
+    <col min="13327" max="13327" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13328" max="13334" width="9.13888888888889" style="4"/>
+    <col min="13335" max="13335" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13336" max="13336" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="13337" max="13582" width="9.13888888888889" style="4"/>
+    <col min="13583" max="13583" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13584" max="13590" width="9.13888888888889" style="4"/>
+    <col min="13591" max="13591" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13592" max="13592" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="13593" max="13838" width="9.13888888888889" style="4"/>
+    <col min="13839" max="13839" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13840" max="13846" width="9.13888888888889" style="4"/>
+    <col min="13847" max="13847" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="13848" max="13848" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="13849" max="14094" width="9.13888888888889" style="4"/>
+    <col min="14095" max="14095" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14096" max="14102" width="9.13888888888889" style="4"/>
+    <col min="14103" max="14103" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14104" max="14104" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="14105" max="14350" width="9.13888888888889" style="4"/>
+    <col min="14351" max="14351" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14352" max="14358" width="9.13888888888889" style="4"/>
+    <col min="14359" max="14359" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14360" max="14360" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="14361" max="14606" width="9.13888888888889" style="4"/>
+    <col min="14607" max="14607" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14608" max="14614" width="9.13888888888889" style="4"/>
+    <col min="14615" max="14615" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14616" max="14616" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="14617" max="14862" width="9.13888888888889" style="4"/>
+    <col min="14863" max="14863" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14864" max="14870" width="9.13888888888889" style="4"/>
+    <col min="14871" max="14871" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="14872" max="14872" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="14873" max="15118" width="9.13888888888889" style="4"/>
+    <col min="15119" max="15119" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15120" max="15126" width="9.13888888888889" style="4"/>
+    <col min="15127" max="15127" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15128" max="15128" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="15129" max="15374" width="9.13888888888889" style="4"/>
+    <col min="15375" max="15375" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15376" max="15382" width="9.13888888888889" style="4"/>
+    <col min="15383" max="15383" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15384" max="15384" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="15385" max="15630" width="9.13888888888889" style="4"/>
+    <col min="15631" max="15631" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15632" max="15638" width="9.13888888888889" style="4"/>
+    <col min="15639" max="15639" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15640" max="15640" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="15641" max="15886" width="9.13888888888889" style="4"/>
+    <col min="15887" max="15887" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15888" max="15894" width="9.13888888888889" style="4"/>
+    <col min="15895" max="15895" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="15896" max="15896" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="15897" max="16142" width="9.13888888888889" style="4"/>
+    <col min="16143" max="16143" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="16144" max="16150" width="9.13888888888889" style="4"/>
+    <col min="16151" max="16151" width="16.8611111111111" style="4" customWidth="1"/>
+    <col min="16152" max="16152" width="17.5740740740741" style="4" customWidth="1"/>
+    <col min="16153" max="16378" width="9.13888888888889" style="4"/>
+    <col min="16379" max="16384" width="9.13888888888889" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -2206,7 +2245,7 @@
       <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>200</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -2250,7 +2289,7 @@
       <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>200</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -2294,7 +2333,7 @@
       <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>200</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -2338,7 +2377,7 @@
       <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>200</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -2385,7 +2424,7 @@
       <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>200</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -2435,7 +2474,7 @@
       <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>200</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -2482,7 +2521,7 @@
       <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>200</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -2570,7 +2609,7 @@
       <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>200</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -2614,7 +2653,7 @@
       <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>200</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -2658,7 +2697,7 @@
       <c r="C12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>200</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2702,7 +2741,7 @@
       <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>200</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -2749,7 +2788,7 @@
       <c r="C14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>200</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -2796,7 +2835,7 @@
       <c r="C15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>200</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -2843,7 +2882,7 @@
       <c r="C16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>200</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -2931,7 +2970,7 @@
       <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>200</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -2978,7 +3017,7 @@
       <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>200</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -3022,7 +3061,7 @@
       <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>200</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -3066,7 +3105,7 @@
       <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>200</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -3113,7 +3152,7 @@
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>200</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -3160,7 +3199,7 @@
       <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>200</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -3207,7 +3246,7 @@
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>200</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -3295,7 +3334,7 @@
       <c r="C26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>200</v>
       </c>
       <c r="E26" s="19" t="s">
@@ -3339,7 +3378,7 @@
       <c r="C27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>200</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -3383,7 +3422,7 @@
       <c r="C28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>200</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -3427,7 +3466,7 @@
       <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>200</v>
       </c>
       <c r="E29" s="19" t="s">
@@ -3474,7 +3513,7 @@
       <c r="C30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>200</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -3521,7 +3560,7 @@
       <c r="C31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>200</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -3568,7 +3607,7 @@
       <c r="C32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>200</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -3656,7 +3695,7 @@
       <c r="C34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>200</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -3700,7 +3739,7 @@
       <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>200</v>
       </c>
       <c r="E35" s="17" t="s">
@@ -3744,7 +3783,7 @@
       <c r="C36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>200</v>
       </c>
       <c r="E36" s="17" t="s">
@@ -3788,7 +3827,7 @@
       <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>200</v>
       </c>
       <c r="E37" s="20" t="s">
@@ -3835,7 +3874,7 @@
       <c r="C38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>200</v>
       </c>
       <c r="E38" s="17" t="s">
@@ -3882,7 +3921,7 @@
       <c r="C39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>200</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -3929,7 +3968,7 @@
       <c r="C40" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>200</v>
       </c>
       <c r="E40" s="17" t="s">
@@ -4017,7 +4056,7 @@
       <c r="C42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>200</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -4061,7 +4100,7 @@
       <c r="C43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>200</v>
       </c>
       <c r="E43" s="13" t="s">
@@ -4105,7 +4144,7 @@
       <c r="C44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>200</v>
       </c>
       <c r="E44" s="13" t="s">
@@ -4149,7 +4188,7 @@
       <c r="C45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>200</v>
       </c>
       <c r="E45" s="13" t="s">
@@ -4196,7 +4235,7 @@
       <c r="C46" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>200</v>
       </c>
       <c r="E46" s="13" t="s">
@@ -4243,7 +4282,7 @@
       <c r="C47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>200</v>
       </c>
       <c r="E47" s="22" t="s">
@@ -4290,7 +4329,7 @@
       <c r="C48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>200</v>
       </c>
       <c r="E48" s="13" t="s">
@@ -4378,7 +4417,7 @@
       <c r="C50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>200</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -4422,7 +4461,7 @@
       <c r="C51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>200</v>
       </c>
       <c r="E51" s="23" t="s">
@@ -4466,7 +4505,7 @@
       <c r="C52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>200</v>
       </c>
       <c r="E52" s="23" t="s">
@@ -4510,7 +4549,7 @@
       <c r="C53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>200</v>
       </c>
       <c r="E53" s="23" t="s">
@@ -4557,7 +4596,7 @@
       <c r="C54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>200</v>
       </c>
       <c r="E54" s="23" t="s">
@@ -4604,7 +4643,7 @@
       <c r="C55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>200</v>
       </c>
       <c r="E55" s="23" t="s">
@@ -4651,7 +4690,7 @@
       <c r="C56" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>200</v>
       </c>
       <c r="E56" s="23" t="s">
@@ -4739,7 +4778,7 @@
       <c r="C58" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>200</v>
       </c>
       <c r="E58" s="13" t="s">
@@ -4783,7 +4822,7 @@
       <c r="C59" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>200</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -4827,7 +4866,7 @@
       <c r="C60" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
         <v>200</v>
       </c>
       <c r="E60" s="24" t="s">
@@ -4871,7 +4910,7 @@
       <c r="C61" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
         <v>200</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -4918,7 +4957,7 @@
       <c r="C62" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="1">
         <v>200</v>
       </c>
       <c r="E62" s="24" t="s">
@@ -4965,7 +5004,7 @@
       <c r="C63" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="1">
         <v>200</v>
       </c>
       <c r="E63" s="24" t="s">
@@ -5012,7 +5051,7 @@
       <c r="C64" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
         <v>200</v>
       </c>
       <c r="E64" s="24" t="s">
@@ -5100,7 +5139,7 @@
       <c r="C66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
         <v>200</v>
       </c>
       <c r="E66" s="20" t="s">
@@ -5144,7 +5183,7 @@
       <c r="C67" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="1">
         <v>200</v>
       </c>
       <c r="E67" s="23" t="s">
@@ -5188,7 +5227,7 @@
       <c r="C68" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
         <v>200</v>
       </c>
       <c r="E68" s="23" t="s">
@@ -5232,7 +5271,7 @@
       <c r="C69" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="1">
         <v>200</v>
       </c>
       <c r="E69" s="23" t="s">
@@ -5279,7 +5318,7 @@
       <c r="C70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
         <v>200</v>
       </c>
       <c r="E70" s="23" t="s">
@@ -5326,7 +5365,7 @@
       <c r="C71" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
         <v>200</v>
       </c>
       <c r="E71" s="23" t="s">
@@ -5373,7 +5412,7 @@
       <c r="C72" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="1">
         <v>200</v>
       </c>
       <c r="E72" s="23" t="s">
@@ -8274,7 +8313,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" customFormat="1" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/j技能格系统/技能格信息表.xlsx
+++ b/Table/Table_xls/j技能格系统/技能格信息表.xlsx
@@ -704,6 +704,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -713,22 +721,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,15 +743,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,6 +774,29 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -787,21 +817,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -812,29 +827,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -897,7 +897,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +975,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,37 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,91 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,6 +1106,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1125,51 +1169,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,7 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,136 +1193,136 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1781,11 +1781,11 @@
   <dimension ref="A1:AG136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F118" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66:D72"/>
+      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5782,6 +5782,9 @@
       <c r="F80" s="14">
         <v>164006</v>
       </c>
+      <c r="G80" s="1">
+        <v>300404</v>
+      </c>
       <c r="K80" s="3">
         <v>20</v>
       </c>
@@ -6140,6 +6143,9 @@
       <c r="F88" s="14">
         <v>165006</v>
       </c>
+      <c r="G88" s="1">
+        <v>300404</v>
+      </c>
       <c r="K88" s="3">
         <v>21</v>
       </c>
@@ -6498,6 +6504,9 @@
       <c r="F96" s="14">
         <v>166006</v>
       </c>
+      <c r="G96" s="1">
+        <v>300404</v>
+      </c>
       <c r="K96" s="3">
         <v>22</v>
       </c>
@@ -6856,6 +6865,9 @@
       <c r="F104" s="14">
         <v>167006</v>
       </c>
+      <c r="G104" s="1">
+        <v>300404</v>
+      </c>
       <c r="K104" s="2">
         <v>23</v>
       </c>
@@ -7214,6 +7226,9 @@
       <c r="F112" s="14">
         <v>168006</v>
       </c>
+      <c r="G112" s="1">
+        <v>300404</v>
+      </c>
       <c r="K112" s="2">
         <v>24</v>
       </c>
@@ -7571,6 +7586,9 @@
       </c>
       <c r="F120" s="14">
         <v>169006</v>
+      </c>
+      <c r="G120" s="1">
+        <v>300404</v>
       </c>
       <c r="K120" s="2">
         <v>25</v>
